--- a/Data/2_processed/datos_economicos_filtrados.xlsx
+++ b/Data/2_processed/datos_economicos_filtrados.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL21"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>zscore_PRICE_Italy_10Y_Bond_bond</t>
+          <t>MoM_PRICE_Japan_10Y_Bond_bond</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -465,165 +465,130 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>YTD_PRICE_Japan_10Y_Bond_bond</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rolling_var_PRICE_UK_10Y_Bond_bond</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>3M_change_PRICE_Germany_10Y_Bond_bond</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>YoY_Actual_U.S. All Car Sales_car_registrations</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>momentum_PRICE_CrudeOil_WTI_commodities</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>MoM_PRICE_Colombia_10_Year_Bond_bond</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MoM_AAA_Corporate_Bond_AAA_Spread_bond</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>YoY_AAA_Corporate_Bond_AAA_Spread_bond</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>YTD_AAA_Corporate_Bond_AAA_Spread_bond</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>3M_change_PRICE_CrudeOil_WTI_commodities</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>rolling_var_PRICE_Copper_Futures_commodities</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>MACD_signal_PRICE_Copper_Futures_commodities</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>momentum_PRICE_Palladium_Futures_commodities</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>rolling_var_PRICE_Nickel_Futures_commodities</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MACD_signal_PRICE_Nickel_Futures_commodities</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>6M_change_PRICE_Iron_ore_fines_62%_Fe_CFR_Futures_commodities</t>
+          <t>momentum_PRICE_Copper_Futures_commodities</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>MoM_Actual_China_M2_MoneySupply_YoY_economics</t>
+          <t>MoM_Actual_Japan_Leading_Indicator_leading_economic_index</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>3M_change_Actual_China_M2_MoneySupply_YoY_economics</t>
+          <t>3M_change_Actual_Japan_Leading_Indicator_leading_economic_index</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>zscore_Actual_China_M2_MoneySupply_YoY_economics</t>
+          <t>YTD_Actual_Japan_Leading_Indicator_leading_economic_index</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>log_Actual_Mexico_CPI_MoM_economics</t>
+          <t>6M_change_PRICE_CNY_USD_Spot_exchange_rate</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>3M_change_Actual_Mexico_CPI_MoM_economics</t>
+          <t>3M_change_PRICE_MXN_USD_Spot_exchange_rate</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>YTD_Actual_Mexico_CPI_MoM_economics</t>
+          <t>zscore_PRICE_MXN_USD_Spot_exchange_rate</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>YoY_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
+          <t>3M_change_PRICE_EUR_GBP_Cross_exchange_rate</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>YoY_Actual_IPC Colombia_economics</t>
+          <t>zscore_PRICE_FTSE_100_index_pricing</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>3M_change_Actual_IPC Colombia_economics</t>
+          <t>Actual_US_Philly_Fed_Index_business_confidence</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>zscore_Actual_IPC Colombia_economics</t>
+          <t>CSCICP02CHQ460S_Switzerland_Consumer_Confidence_consumer_confidence</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>rolling_var_PRICE_JPY_USD_Spot_exchange_rate</t>
+          <t>Tasa_de_política_monetariaDato_diario_TPS_economics</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>MACD_signal_PRICE_EUR_GBP_Cross_exchange_rate</t>
+          <t>Actual_Mexico_CPI_MoM_economics</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>log_Actual_Singapore_NonOil_Exports_YoY_economics</t>
+          <t>Actual_UK_Retail_Sales_MoM_economics</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>3M_change_Actual_Singapore_NonOil_Exports_YoY_economics</t>
+          <t>ECBDFR_ECB_Deposit_Rate_economics</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>MoM_Actual_China_Exports_exports</t>
+          <t>Actual_Singapore_NonOil_Exports_YoY_economics</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>log_Actual_China_Exports_exports</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>6M_change_Actual_China_Exports_exports</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>zscore_Actual_Eurozone_Unemployment_Rate_unemployment_rate</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>MoM_UNRATE_US_Unemployment_Rate_unemployment_rate</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>zscore_UNRATE_US_Unemployment_Rate_unemployment_rate</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Actual_US_Philly_Fed_Index_business_confidence</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>GBRSLRTCR03GPSAM_United_Kingdom_Car_Registrations_MoM</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>PRICE_S&amp;P500_Index_index_pricing_Return_Target</t>
         </is>
@@ -631,2323 +596,1863 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45678</v>
+        <v>45747</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4312208993291307</v>
+        <v>0.05455850681981333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7918552036199094</v>
+        <v>0.7181286549707604</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2172131147540983</v>
+        <v>0.3186714542190305</v>
       </c>
       <c r="E2" t="n">
-        <v>0.325892857142857</v>
+        <v>0.5398322851153041</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06195069667738462</v>
+        <v>0.3576709796672828</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.009966777408637828</v>
+        <v>0.002994076315755176</v>
       </c>
       <c r="H2" t="n">
-        <v>2.320000000000007</v>
+        <v>0.1141981613891727</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1359077982337973</v>
+        <v>0.0685030155729589</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01983246315790109</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0436728051652711</v>
+        <v>0.001893939393939448</v>
       </c>
       <c r="L2" t="n">
-        <v>49</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M2" t="n">
-        <v>102525.2921052813</v>
+        <v>-0.01974766867800326</v>
       </c>
       <c r="N2" t="n">
-        <v>9.259242328088524</v>
+        <v>0.03547328684212034</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0160412210771923</v>
+        <v>0.07500000000000018</v>
       </c>
       <c r="P2" t="n">
-        <v>0.028169014084507</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07352941176470584</v>
+        <v>-0.007332722273143855</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2420935181350019</v>
+        <v>-0.007332722273143855</v>
       </c>
       <c r="S2" t="n">
-        <v>0.003792798238696262</v>
+        <v>0.0239452518696206</v>
       </c>
       <c r="T2" t="n">
-        <v>6.6</v>
+        <v>0.007783251231527011</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.1363636363636365</v>
+        <v>0.302564434299488</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.08797909407665505</v>
+        <v>0.009281581485053092</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.439655172413793</v>
+        <v>-0.1536321228047261</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.1049913941480207</v>
+        <v>12.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.7163807106937228</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8662052631531918</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.002597465552349613</v>
+        <v>0.0028</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.08617769624105241</v>
+        <v>0.01</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.333333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5970149253731343</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.1016536537264998</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.5285714285714285</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>-0.1290994447619066</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>-0.02439024390243894</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>-1.420093893604326</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>-0.6733866990419655</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.01328100720090464</v>
-      </c>
+        <v>0.076</v>
+      </c>
+      <c r="AE2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45720</v>
+        <v>45748</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1472289851222161</v>
+        <v>0.05102763997165138</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7974522292993631</v>
+        <v>0.7224157955865274</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3399810066476734</v>
+        <v>0.3252904378909742</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7082324455205813</v>
+        <v>0.5272914521112257</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1717863894139886</v>
+        <v>0.3706099815157116</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.05750798722044725</v>
+        <v>0.001841138815755142</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.589999999999989</v>
+        <v>0.07865620599476975</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0001464772227917077</v>
+        <v>0.06871609403254975</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006803184210537219</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07063612842246487</v>
+        <v>0.001893939393939448</v>
       </c>
       <c r="L3" t="n">
-        <v>-67.39999999999998</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M3" t="n">
-        <v>34050.52070396325</v>
+        <v>-0.03221421775180089</v>
       </c>
       <c r="N3" t="n">
-        <v>1.063956919512981</v>
+        <v>0.02702335460527858</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1046966731898238</v>
+        <v>0.01850000000000041</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.04109589041095874</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.06666666666666654</v>
+        <v>-0.007332722273143855</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.238557249684603</v>
+        <v>-0.007332722273143855</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002895803112025468</v>
+        <v>0.02111132960642759</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.3409090909090909</v>
+        <v>0.002018709995076362</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.3409090909090909</v>
+        <v>-0.1995170411904041</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.07872539831302727</v>
+        <v>0.008208594881699671</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.3255813953488371</v>
+        <v>0.1382155373748555</v>
       </c>
       <c r="X3" t="n">
-        <v>0.003846153846154055</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.514742369703817</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.293731315785108</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.001997913954136793</v>
+        <v>0.0028</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.02122363645162669</v>
+        <v>0.01</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.5434782608695652</v>
+        <v>2.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.1016536537264998</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.2298850574712645</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>-7.616867240945514</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>2.46824018921123</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>-0.02510838244074665</v>
-      </c>
+        <v>0.076</v>
+      </c>
+      <c r="AE3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45721</v>
+        <v>45749</v>
       </c>
       <c r="B4" t="n">
-        <v>2.630592052465314</v>
+        <v>0.01608391608391613</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8915343915343914</v>
+        <v>0.6895348837209303</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3503305004721435</v>
+        <v>0.2344944774851316</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7312348668280872</v>
+        <v>0.5230607966457024</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3062661347101618</v>
+        <v>0.3428835489833642</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.05750798722044725</v>
+        <v>0.001923480921018308</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.939999999999998</v>
+        <v>0.07923930269413626</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05095176756834119</v>
+        <v>0.07605838092647987</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006978184210537402</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06933116805389995</v>
+        <v>0.001893939393939448</v>
       </c>
       <c r="L4" t="n">
-        <v>-59.19999999999993</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M4" t="n">
-        <v>38169.76455027646</v>
+        <v>-0.01321040319251421</v>
       </c>
       <c r="N4" t="n">
-        <v>14.4892164345516</v>
+        <v>0.02535266842106821</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0999235557496998</v>
+        <v>-0.05949999999999989</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.04109589041095874</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.06666666666666654</v>
+        <v>-0.007332722273143855</v>
       </c>
       <c r="R4" t="n">
-        <v>-1.226532702418099</v>
+        <v>-0.007332722273143855</v>
       </c>
       <c r="S4" t="n">
-        <v>0.002895803112025468</v>
+        <v>0.0208309922463199</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.3409090909090909</v>
+        <v>-0.008247422680412342</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.3409090909090909</v>
+        <v>-0.8758216338916025</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.07872539831302727</v>
+        <v>-0.000119817876827244</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.3255813953488371</v>
+        <v>-0.07792438924041412</v>
       </c>
       <c r="X4" t="n">
-        <v>0.003846153846154055</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.45668453224248</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.376550263153541</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.001858030764693601</v>
+        <v>0.0028</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.02122363645162669</v>
+        <v>0.01</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.5434782608695652</v>
+        <v>2.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.1016536537264998</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.2298850574712645</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>-5.340099871868735</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2.329224625545656</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>-0.02938060428266032</v>
-      </c>
+        <v>0.076</v>
+      </c>
+      <c r="AE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45722</v>
+        <v>45750</v>
       </c>
       <c r="B5" t="n">
-        <v>3.146477685695401</v>
+        <v>-0.1062834224598931</v>
       </c>
       <c r="C5" t="n">
-        <v>1.043715846994536</v>
+        <v>0.5420991926182237</v>
       </c>
       <c r="D5" t="n">
-        <v>0.437079731027858</v>
+        <v>0.1369047619047619</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7497076023391813</v>
+        <v>0.3854922279792745</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3177249885792599</v>
+        <v>0.2356746765249538</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05750798722044725</v>
+        <v>0.003203612499965722</v>
       </c>
       <c r="H5" t="n">
-        <v>-6.209999999999994</v>
+        <v>0.04326353220071111</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04737295434969846</v>
+        <v>0.03652189519023685</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007072559868432326</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07044701670123371</v>
+        <v>0.001893939393939448</v>
       </c>
       <c r="L5" t="n">
-        <v>-64.29999999999995</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M5" t="n">
-        <v>58172.53005764112</v>
+        <v>-0.08588203167667929</v>
       </c>
       <c r="N5" t="n">
-        <v>33.47031493543371</v>
+        <v>0.02497616052633138</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1000760621536454</v>
+        <v>-0.2835000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.04109589041095874</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.06666666666666654</v>
+        <v>-0.007332722273143855</v>
       </c>
       <c r="R5" t="n">
-        <v>-1.22133618920146</v>
+        <v>-0.007332722273143855</v>
       </c>
       <c r="S5" t="n">
-        <v>0.002895803112025468</v>
+        <v>0.02213768319389064</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.3409090909090909</v>
+        <v>-0.02734374999999989</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.3409090909090909</v>
+        <v>-2.062659910385869</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.07872539831302727</v>
+        <v>0.007889074826679332</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.3255813953488371</v>
+        <v>-1.051748984261657</v>
       </c>
       <c r="X5" t="n">
-        <v>0.003846153846154055</v>
+        <v>12.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.402378931813112</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.771930526311447</v>
+        <v>9.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.001613834531855422</v>
+        <v>0.0028</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.02122363645162669</v>
+        <v>0.01</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.5434782608695652</v>
+        <v>2.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.7850467289719626</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.02273948696948934</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>-0.735632183908046</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>-4.322422159178372</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>2.20782479743862</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>-0.05959724807093114</v>
-      </c>
+        <v>0.076</v>
+      </c>
+      <c r="AE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45723</v>
+        <v>45751</v>
       </c>
       <c r="B6" t="n">
-        <v>2.737563713770974</v>
+        <v>-0.2160000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>1.07182320441989</v>
+        <v>0.3228346456692912</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4520813165537272</v>
+        <v>-0.01836393989983309</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7321016166281755</v>
+        <v>0.2123711340206185</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2616822429906542</v>
+        <v>0.08687615526802195</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.05750798722044725</v>
+        <v>0.005836378947334189</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.359999999999999</v>
+        <v>0.0007789678675755862</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05337475289466231</v>
+        <v>0.04331416247304087</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007150891447379753</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07130556835433866</v>
+        <v>0.001893939393939448</v>
       </c>
       <c r="L6" t="n">
-        <v>-41.39999999999998</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M6" t="n">
-        <v>90001.96469974062</v>
+        <v>-0.1816501650165017</v>
       </c>
       <c r="N6" t="n">
-        <v>57.35926560874002</v>
+        <v>0.03875997105264698</v>
       </c>
       <c r="O6" t="n">
-        <v>0.101816599586642</v>
+        <v>-0.7115</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.04109589041095874</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.01408450704225339</v>
+        <v>0.0121495327102803</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.194746565100631</v>
+        <v>-0.007332722273143855</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002796087302001188</v>
+        <v>0.02531859466309938</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-0.01386272520890686</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.3636363636363636</v>
+        <v>0.1780743072740603</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.07872539831302727</v>
+        <v>0.01299475441106335</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.3178294573643411</v>
+        <v>-3.738756018975666</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01538461538461533</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.381787470393081</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.085783947364086</v>
+        <v>9.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.001289448195062376</v>
+        <v>0.0028</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.02122363645162669</v>
+        <v>0.01</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.5434782608695652</v>
+        <v>2.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.7850467289719626</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.02273948696948934</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>-0.735632183908046</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>-3.710345894977396</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>2.100463497089125</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>-0.1206405323905584</v>
-      </c>
+        <v>0.076</v>
+      </c>
+      <c r="AE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45726</v>
+        <v>45754</v>
       </c>
       <c r="B7" t="n">
-        <v>2.618605781802993</v>
+        <v>-0.2727272727272728</v>
       </c>
       <c r="C7" t="n">
-        <v>1.081879194630873</v>
+        <v>0.3040462427745663</v>
       </c>
       <c r="D7" t="n">
-        <v>0.467360454115421</v>
+        <v>-0.05843071786310527</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8530465949820789</v>
+        <v>0.1811518324607329</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2594739188586717</v>
+        <v>0.04251386321626605</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.05750798722044725</v>
+        <v>0.005917196710492088</v>
       </c>
       <c r="H7" t="n">
-        <v>-5.019999999999996</v>
+        <v>0.002895193977996424</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06558543178261489</v>
+        <v>0.06128283008754698</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006974450000011315</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07110130763185706</v>
+        <v>0.001893939393939448</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.2999999999999545</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M7" t="n">
-        <v>120906.3923839432</v>
+        <v>-0.2147477360931436</v>
       </c>
       <c r="N7" t="n">
-        <v>83.37401506568617</v>
+        <v>0.06582919144738354</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1025109170305678</v>
+        <v>-0.9065000000000003</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.04109589041095874</v>
+        <v>-0.0009259259259258856</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.01408450704225339</v>
+        <v>0.008411214953271129</v>
       </c>
       <c r="R7" t="n">
-        <v>-1.169071461003188</v>
+        <v>-0.01099908340971578</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002796087302001188</v>
+        <v>0.026577139726643</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.3636363636363636</v>
+        <v>0.001113801452784502</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.3636363636363636</v>
+        <v>1.342222885384221</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.07872539831302727</v>
+        <v>0.02120562306409335</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.3178294573643411</v>
+        <v>-4.904551434687624</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01538461538461533</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.349605031796641</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.470283157890419</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.0008857892861065594</v>
+        <v>0.0028</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.02122363645162669</v>
+        <v>0.01</v>
       </c>
       <c r="AC7" t="n">
-        <v>-1.617647058823529</v>
+        <v>2.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.7850467289719626</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.02273948696948934</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>-0.735632183908046</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>-3.288870119454109</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>2.004506180178852</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>-0.09837102105953099</v>
-      </c>
+        <v>0.076</v>
+      </c>
+      <c r="AE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45727</v>
+        <v>45755</v>
       </c>
       <c r="B8" t="n">
-        <v>2.783115951573082</v>
+        <v>-0.1475519785378941</v>
       </c>
       <c r="C8" t="n">
-        <v>1.009433962264151</v>
+        <v>0.5221556886227545</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3921568627450982</v>
+        <v>0.02417405318291688</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8407407407407408</v>
+        <v>0.296938775510204</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2870266636791394</v>
+        <v>0.1746765249537892</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05750798722044725</v>
+        <v>0.006061197368386837</v>
       </c>
       <c r="H8" t="n">
-        <v>-3</v>
+        <v>0.0007626310772164135</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.05340990667623835</v>
+        <v>0.0575892857142859</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007582778947379821</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07166701451210809</v>
+        <v>0.001893939393939448</v>
       </c>
       <c r="L8" t="n">
-        <v>19.20000000000005</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M8" t="n">
-        <v>150172.3684957763</v>
+        <v>-0.2198507267251539</v>
       </c>
       <c r="N8" t="n">
-        <v>110.0549557771631</v>
+        <v>0.09718290197369898</v>
       </c>
       <c r="O8" t="n">
-        <v>0.09980409229429688</v>
+        <v>-1.040999999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.04109589041095874</v>
+        <v>-0.0009259259259258856</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.01408450704225339</v>
+        <v>0.008411214953271129</v>
       </c>
       <c r="R8" t="n">
-        <v>-1.144249822819037</v>
+        <v>-0.01099908340971578</v>
       </c>
       <c r="S8" t="n">
-        <v>0.002796087302001188</v>
+        <v>0.03029622350133376</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.3636363636363636</v>
+        <v>0.01633180532527079</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.3636363636363636</v>
+        <v>2.011005761866759</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.07872539831302727</v>
+        <v>0.01706767808462728</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.3178294573643411</v>
+        <v>-3.486283708873886</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01538461538461533</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.731101302785512</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.48825552631148</v>
+        <v>9.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.0004212720484330574</v>
+        <v>0.0028</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.02122363645162669</v>
+        <v>0.01</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1.617647058823529</v>
+        <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.7850467289719626</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.02273948696948934</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>-0.735632183908046</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>-2.974894955658228</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1.917963442059052</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>-0.1057596189566892</v>
-      </c>
+        <v>0.076</v>
+      </c>
+      <c r="AE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45728</v>
+        <v>45756</v>
       </c>
       <c r="B9" t="n">
-        <v>2.480607583172753</v>
+        <v>-0.1468438538205979</v>
       </c>
       <c r="C9" t="n">
-        <v>1.061643835616438</v>
+        <v>0.4590909090909092</v>
       </c>
       <c r="D9" t="n">
-        <v>0.423841059602649</v>
+        <v>0.02720000000000011</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8557336621454992</v>
+        <v>0.310204081632653</v>
       </c>
       <c r="F9" t="n">
-        <v>0.288041053101294</v>
+        <v>0.1866913123844731</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05750798722044725</v>
+        <v>0.006702207894702618</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.240000000000009</v>
+        <v>0.02057368941641946</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03770351328191945</v>
+        <v>0.05505807252416006</v>
       </c>
       <c r="J9" t="n">
-        <v>0.009426186842116735</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07385451698892566</v>
+        <v>0.001893939393939448</v>
       </c>
       <c r="L9" t="n">
-        <v>29.30000000000007</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M9" t="n">
-        <v>184907.8012681338</v>
+        <v>-0.2078516071655443</v>
       </c>
       <c r="N9" t="n">
-        <v>137.8751010535516</v>
+        <v>0.1235251440789618</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09962059620596198</v>
+        <v>-1.026</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.04109589041095874</v>
+        <v>-0.0009259259259258856</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01408450704225339</v>
+        <v>0.008411214953271129</v>
       </c>
       <c r="R9" t="n">
-        <v>-1.12022605926612</v>
+        <v>-0.01099908340971578</v>
       </c>
       <c r="S9" t="n">
-        <v>0.002796087302001188</v>
+        <v>0.03153595688542077</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-0.011486608736473</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-0.7168677700315841</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.07872539831302727</v>
+        <v>0.01702178312105707</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.3178294573643411</v>
+        <v>-3.992702335934387</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01538461538461533</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.306074440659184</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.554204999995703</v>
+        <v>9.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.349841045126208e-06</v>
+        <v>0.0031</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.02122363645162669</v>
+        <v>0.01</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1.617647058823529</v>
+        <v>2.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.7850467289719626</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.02273948696948934</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>-0.735632183908046</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>-2.728596359519002</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1.839300824472021</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>-0.02543175039737122</v>
-      </c>
+        <v>0.076</v>
+      </c>
+      <c r="AE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45729</v>
+        <v>45757</v>
       </c>
       <c r="B10" t="n">
-        <v>2.313705415582828</v>
+        <v>-0.09848982271831908</v>
       </c>
       <c r="C10" t="n">
-        <v>1.060893098782138</v>
+        <v>0.551412429378531</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4220354808590103</v>
+        <v>0.1413133832086451</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8327316486161251</v>
+        <v>0.4302083333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2382295508787156</v>
+        <v>0.2689463955637708</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05750798722044725</v>
+        <v>0.006694818421018412</v>
       </c>
       <c r="H10" t="n">
-        <v>-4.079999999999998</v>
+        <v>0.02420154731204116</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04482559815508791</v>
+        <v>0.06421286031042128</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01234843355264313</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07798806326084311</v>
+        <v>0.001893939393939448</v>
       </c>
       <c r="L10" t="n">
-        <v>48.70000000000005</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M10" t="n">
-        <v>195854.2036365455</v>
+        <v>-0.2365277071682766</v>
       </c>
       <c r="N10" t="n">
-        <v>161.543571829519</v>
+        <v>0.1383896440789615</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1039550464663928</v>
+        <v>-0.7619999999999996</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.04109589041095874</v>
+        <v>-0.0009259259259258856</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.01408450704225339</v>
+        <v>0.008411214953271129</v>
       </c>
       <c r="R10" t="n">
-        <v>-1.096949422993414</v>
+        <v>-0.01099908340971578</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002796087302001188</v>
+        <v>0.02733376408124277</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-0.01856457033125292</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.3636363636363636</v>
+        <v>0.320528422105389</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.06112702960840499</v>
+        <v>0.02627511591962906</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.3178294573643411</v>
+        <v>-2.757956807605588</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01538461538461533</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.989881927572092</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.193023947364129</v>
+        <v>9.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0003587207355312833</v>
+        <v>0.0031</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.02122363645162669</v>
+        <v>0.01</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.617647058823529</v>
+        <v>2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.7850467289719626</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0.02273948696948934</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>-0.735632183908046</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>-2.528174571719743</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1.767312990084523</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>-0.04590583752300093</v>
-      </c>
+        <v>0.076</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45730</v>
+        <v>45758</v>
       </c>
       <c r="B11" t="n">
-        <v>2.217629802179393</v>
+        <v>-0.102461743180306</v>
       </c>
       <c r="C11" t="n">
-        <v>1.081717451523545</v>
+        <v>0.519144144144144</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4396551724137929</v>
+        <v>0.1241666666666668</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8647642679900742</v>
+        <v>0.4214963119072708</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2565055762081785</v>
+        <v>0.2467652495378927</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05750798722044725</v>
+        <v>0.0071119861841763</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.850000000000009</v>
+        <v>0.009588493807431098</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.03057084902926688</v>
+        <v>0.0581837474577771</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01496164210527482</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08247625891427036</v>
+        <v>0.001893939393939448</v>
       </c>
       <c r="L11" t="n">
-        <v>61.5</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M11" t="n">
-        <v>210948.4841628521</v>
+        <v>-0.2103235747303543</v>
       </c>
       <c r="N11" t="n">
-        <v>182.2972189307454</v>
+        <v>0.1437765493421193</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1061518606151859</v>
+        <v>-0.6070000000000002</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0.0009259259259258856</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.01408450704225339</v>
+        <v>0.008411214953271129</v>
       </c>
       <c r="R11" t="n">
-        <v>-1.074373475314544</v>
+        <v>-0.01099908340971578</v>
       </c>
       <c r="S11" t="n">
-        <v>0.002796087302001188</v>
+        <v>0.02411550724027012</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-0.02242432991675081</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-0.2316277986030647</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.06112702960840499</v>
+        <v>0.02891337836236518</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.3178294573643411</v>
+        <v>-2.3882519240346</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01538461538461533</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.742089568695918</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.77076736841676</v>
+        <v>9.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0006994870147888812</v>
+        <v>0.0031</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.02122363645162669</v>
+        <v>0.01</v>
       </c>
       <c r="AC11" t="n">
-        <v>-1.617647058823529</v>
+        <v>2.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.7850467289719626</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.02273948696948934</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>-0.735632183908046</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>-2.360555489916727</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1.701038000135884</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>-0.04887088708161458</v>
-      </c>
+        <v>0.076</v>
+      </c>
+      <c r="AE11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45733</v>
+        <v>45761</v>
       </c>
       <c r="B12" t="n">
-        <v>1.552579715492276</v>
+        <v>-0.09993293091884647</v>
       </c>
       <c r="C12" t="n">
-        <v>1.111898016997167</v>
+        <v>0.499441340782123</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4105960264900663</v>
+        <v>0.1239530988274709</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7438596491228071</v>
+        <v>0.3835051546391754</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2041254834550925</v>
+        <v>0.2402957486136783</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.05750798722044725</v>
+        <v>0.007082423684176297</v>
       </c>
       <c r="H12" t="n">
-        <v>-1</v>
+        <v>0.01143430290872605</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.02092719081528849</v>
+        <v>0.05119152691968232</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01885485460527496</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.08776861142461431</v>
+        <v>0.001893939393939448</v>
       </c>
       <c r="L12" t="n">
-        <v>13.60000000000002</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M12" t="n">
-        <v>213027.565169423</v>
+        <v>-0.2161016949152542</v>
       </c>
       <c r="N12" t="n">
-        <v>197.4110766010597</v>
+        <v>0.1450679842105402</v>
       </c>
       <c r="O12" t="n">
-        <v>0.09048278802088872</v>
+        <v>-0.4085000000000001</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0.0009259259259258856</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.01408450704225339</v>
+        <v>0.008411214953271129</v>
       </c>
       <c r="R12" t="n">
-        <v>-1.052455621504279</v>
+        <v>-0.01099908340971578</v>
       </c>
       <c r="S12" t="n">
-        <v>0.002796087302001188</v>
+        <v>0.02617396918067749</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-0.01968253968253975</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-1.316042857275059</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.06112702960840499</v>
+        <v>0.01858648040724531</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.3178294573643411</v>
+        <v>-1.661126845254139</v>
       </c>
       <c r="X12" t="n">
-        <v>0.01538461538461533</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.540610331300212</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.502897631574659</v>
+        <v>9.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.001004917953589338</v>
+        <v>0.0031</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.07325046173959274</v>
+        <v>0.01</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.235294117647058</v>
+        <v>2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.7850467289719626</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0.02273948696948934</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>-0.735632183908046</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>-2.217355782380594</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1.639697409559048</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>-0.04742630992824814</v>
-      </c>
+        <v>0.076</v>
+      </c>
+      <c r="AE12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45734</v>
+        <v>45762</v>
       </c>
       <c r="B13" t="n">
-        <v>1.524489135623622</v>
+        <v>-0.07821982467970334</v>
       </c>
       <c r="C13" t="n">
-        <v>1.042699724517906</v>
+        <v>0.4858695652173912</v>
       </c>
       <c r="D13" t="n">
-        <v>0.399056603773585</v>
+        <v>0.1506734006734007</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7345029239766083</v>
+        <v>0.4006147540983607</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2131006248653307</v>
+        <v>0.2634011090573012</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05750798722044725</v>
+        <v>0.007080542105228928</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.359999999999999</v>
+        <v>0.02704884941461461</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.03934520390580121</v>
+        <v>0.03388357949609033</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02383988092106464</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.09400489650815372</v>
+        <v>0.001893939393939448</v>
       </c>
       <c r="L13" t="n">
-        <v>21.20000000000005</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M13" t="n">
-        <v>198126.341977836</v>
+        <v>-0.1994992752668335</v>
       </c>
       <c r="N13" t="n">
-        <v>205.5360296639227</v>
+        <v>0.1446440861842242</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.05812028692293536</v>
+        <v>-0.4089999999999998</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0.0009259259259258856</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.01408450704225339</v>
+        <v>0.008411214953271129</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.031156705906228</v>
+        <v>-0.01099908340971578</v>
       </c>
       <c r="S13" t="n">
-        <v>0.002796087302001188</v>
+        <v>0.02594634016353203</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-0.02488841451581592</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-1.152824489324</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.06112702960840499</v>
+        <v>0.01018957345971572</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.3178294573643411</v>
+        <v>-1.191528888639886</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01538461538461533</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.372217941641252</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.051137894732558</v>
+        <v>9.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.00128585419570215</v>
+        <v>0.0031</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.07325046173959274</v>
+        <v>0.01</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.235294117647058</v>
+        <v>2.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.7850467289719626</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0.02273948696948934</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>-0.735632183908046</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>-2.092917348933742</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1.58265346253155</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>-0.0388322712328083</v>
-      </c>
+        <v>0.076</v>
+      </c>
+      <c r="AE13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45735</v>
+        <v>45763</v>
       </c>
       <c r="B14" t="n">
-        <v>1.359603095946599</v>
+        <v>-0.1360907271514344</v>
       </c>
       <c r="C14" t="n">
-        <v>1.025675675675676</v>
+        <v>0.4833906071019471</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4181646168401136</v>
+        <v>0.08277591973244136</v>
       </c>
       <c r="E14" t="n">
-        <v>0.837009803921569</v>
+        <v>0.3588667366211962</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2057746175393234</v>
+        <v>0.1968576709796672</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05750798722044725</v>
+        <v>0.007203138815755246</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8499999999999943</v>
+        <v>0.001400840504302447</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.03561171740379099</v>
+        <v>0.01207191780821915</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03062469671053857</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1016238414303239</v>
+        <v>0.001893939393939448</v>
       </c>
       <c r="L14" t="n">
-        <v>11.10000000000002</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M14" t="n">
-        <v>187407.9601775642</v>
+        <v>-0.1719247083775185</v>
       </c>
       <c r="N14" t="n">
-        <v>210.5279714056261</v>
+        <v>0.1401963921052766</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.06569677006130481</v>
+        <v>-0.3549999999999995</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0.0009259259259258856</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.01408450704225339</v>
+        <v>0.008411214953271129</v>
       </c>
       <c r="R14" t="n">
-        <v>-1.010440657947371</v>
+        <v>-0.01099908340971578</v>
       </c>
       <c r="S14" t="n">
-        <v>0.002796087302001188</v>
+        <v>0.02674631061138433</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-0.02762862442643754</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-1.880026594749106</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.06112702960840499</v>
+        <v>0.01882102272727271</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.3178294573643411</v>
+        <v>-1.064848094337242</v>
       </c>
       <c r="X14" t="n">
-        <v>0.01538461538461533</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.228441311036607</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.7287460526273017</v>
+        <v>9.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.001477939316781572</v>
+        <v>0.0031</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.07325046173959274</v>
+        <v>0.01</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.235294117647058</v>
+        <v>2.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.7850467289719626</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.02273948696948934</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>-0.735632183908046</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>-1.983263303908741</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1.529377900891879</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>-0.07040873682225934</v>
-      </c>
+        <v>0.054</v>
+      </c>
+      <c r="AE14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45736</v>
+        <v>45764</v>
       </c>
       <c r="B15" t="n">
-        <v>1.355640547018614</v>
+        <v>-0.1220813875917278</v>
       </c>
       <c r="C15" t="n">
-        <v>1.012080536912752</v>
+        <v>0.5091743119266057</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3866790009250696</v>
+        <v>0.09302325581395365</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8258221680876983</v>
+        <v>0.4044823906083244</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1969403145873734</v>
+        <v>0.2162661737523106</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.05750798722044725</v>
+        <v>0.007636038815755255</v>
       </c>
       <c r="H15" t="n">
-        <v>1.900000000000006</v>
+        <v>-0.01929964186231592</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.01401126679185327</v>
+        <v>0.02426132917424817</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03725953355264408</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1096698447706894</v>
+        <v>0.001893939393939448</v>
       </c>
       <c r="L15" t="n">
-        <v>-2</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M15" t="n">
-        <v>180930.309992295</v>
+        <v>-0.1332082551594747</v>
       </c>
       <c r="N15" t="n">
-        <v>211.2631137290188</v>
+        <v>0.1341351421052764</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.05687378820053546</v>
+        <v>-0.08950000000000014</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0.0009259259259258856</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.01408450704225339</v>
+        <v>0.008411214953271129</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.9902741816513921</v>
+        <v>-0.01099908340971578</v>
       </c>
       <c r="S15" t="n">
-        <v>0.002796087302001188</v>
+        <v>0.02545730422321513</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-0.03421026798861293</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-2.723557574372199</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.06112702960840499</v>
+        <v>0.01589372553670976</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.3178294573643411</v>
+        <v>-1.03695617856359</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01538461538461533</v>
+        <v>-26.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.103568396899089</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.7002263157851997</v>
+        <v>9.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.001576964710485974</v>
+        <v>0.0031</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.07325046173959274</v>
+        <v>0.01</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.235294117647058</v>
+        <v>2.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.7850467289719626</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.02273948696948934</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>-0.735632183908046</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>-1.885504761205719</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1.479428834856044</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>-0.06713709784226796</v>
-      </c>
+        <v>0.054</v>
+      </c>
+      <c r="AE15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45737</v>
+        <v>45765</v>
       </c>
       <c r="B16" t="n">
-        <v>1.106790138575309</v>
+        <v>-0.1415282392026577</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9673202614379084</v>
+        <v>0.446808510638298</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3807339449541283</v>
+        <v>0.05211726384364823</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7102272727272727</v>
+        <v>0.3686440677966103</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1571458464113833</v>
+        <v>0.1940850277264325</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02640264026402639</v>
+        <v>0.007872855263123693</v>
       </c>
       <c r="H16" t="n">
-        <v>1.239999999999995</v>
+        <v>-0.03144036156415797</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.02707324023938451</v>
+        <v>0.02169403630077782</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04214648618422333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1173357071273617</v>
+        <v>0.007619047619047636</v>
       </c>
       <c r="L16" t="n">
-        <v>6.700000000000045</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M16" t="n">
-        <v>163241.4497904473</v>
+        <v>-0.1336726493436913</v>
       </c>
       <c r="N16" t="n">
-        <v>206.1656834547995</v>
+        <v>0.1272832703947499</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.0628445424476296</v>
+        <v>0.3369999999999997</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-0.0009259259259258856</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.01408450704225339</v>
+        <v>0.008411214953271129</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.9706264824599636</v>
+        <v>-0.01099908340971578</v>
       </c>
       <c r="S16" t="n">
-        <v>0.002796087302001188</v>
+        <v>0.02500912741876582</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-0.02699768027244465</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-2.403120114684422</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.06112702960840499</v>
+        <v>0.01915754402665404</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.3178294573643411</v>
+        <v>-1.01430075750103</v>
       </c>
       <c r="X16" t="n">
-        <v>0.01538461538461533</v>
+        <v>-26.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.993587493168805</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.7011410526273052</v>
+        <v>9.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.001616853981583387</v>
+        <v>0.0031</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.07325046173959274</v>
+        <v>0.01</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.235294117647058</v>
+        <v>2.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.7850467289719626</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.02273948696948934</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>-0.735632183908046</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>-1.797485015357793</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1.432433322220976</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>-0.06790576544403593</v>
-      </c>
+        <v>0.054</v>
+      </c>
+      <c r="AE16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45740</v>
+        <v>45768</v>
       </c>
       <c r="B17" t="n">
-        <v>1.051363356659058</v>
+        <v>-0.1494404213298222</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9599999999999997</v>
+        <v>0.4292035398230087</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4038817005545285</v>
+        <v>0.06162695152013153</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6492942453854504</v>
+        <v>0.3686440677966103</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1742263671047053</v>
+        <v>0.1940850277264325</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02640264026402639</v>
+        <v>0.007966602631544759</v>
       </c>
       <c r="H17" t="n">
-        <v>3.429999999999993</v>
+        <v>-0.01538154214942067</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02013327661987807</v>
+        <v>0.02342264477095934</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04387548092106578</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1237589727618768</v>
+        <v>0.007619047619047636</v>
       </c>
       <c r="L17" t="n">
-        <v>3.399999999999977</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M17" t="n">
-        <v>138680.6283167576</v>
+        <v>-0.1378980456471232</v>
       </c>
       <c r="N17" t="n">
-        <v>195.4928178495463</v>
+        <v>0.1206718394736971</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.09057745351009883</v>
+        <v>0.5940000000000003</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-0.0009259259259258856</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.01408450704225339</v>
+        <v>0.003720930232558262</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.951469026166526</v>
+        <v>-0.01099908340971578</v>
       </c>
       <c r="S17" t="n">
-        <v>0.002796087302001188</v>
+        <v>0.02703007254031986</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-0.04553593031696102</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-2.236347341362731</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.06112702960840499</v>
+        <v>0.02513700262091967</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.3178294573643411</v>
+        <v>-0.992193557767421</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01538461538461533</v>
+        <v>-26.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.895586372246666</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.8362263157851938</v>
+        <v>9.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.001588374612375988</v>
+        <v>0.0031</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.07325046173959274</v>
+        <v>0.01</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.235294117647058</v>
+        <v>2.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.7850467289719626</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.02273948696948934</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>-0.735632183908046</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>-1.717556403600697</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1.388074061378078</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>-0.105654547755814</v>
-      </c>
+        <v>0.054</v>
+      </c>
+      <c r="AE17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45741</v>
+        <v>45769</v>
       </c>
       <c r="B18" t="n">
-        <v>1.493796624679885</v>
+        <v>-0.1529032258064517</v>
       </c>
       <c r="C18" t="n">
-        <v>1.012987012987013</v>
+        <v>0.4524336283185839</v>
       </c>
       <c r="D18" t="n">
-        <v>0.432532347504621</v>
+        <v>0.1024349286314021</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6738660907127429</v>
+        <v>0.4072883172561628</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1824724809483489</v>
+        <v>0.2134935304990757</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02640264026402639</v>
+        <v>0.007796323026281635</v>
       </c>
       <c r="H18" t="n">
-        <v>3.069999999999993</v>
+        <v>-0.04745166959578218</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.03157894736842104</v>
+        <v>0.009372312983662923</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04509769736843463</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1302603963885311</v>
+        <v>0.007619047619047636</v>
       </c>
       <c r="L18" t="n">
+        <v>-0.03113553113553114</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.1282364104649586</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.1115963578947496</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.7839999999999998</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.0009259259259258856</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.003720930232558262</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.01099908340971578</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.02922009374076295</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.04468416695076216</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-2.472213568852706</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.02219305572127439</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.7840912932252383</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-26.4</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-31.11702</v>
+      </c>
+      <c r="Z18" t="n">
         <v>9.5</v>
       </c>
-      <c r="M18" t="n">
-        <v>105008.4550785914</v>
-      </c>
-      <c r="N18" t="n">
-        <v>185.1027519594771</v>
-      </c>
-      <c r="O18" t="n">
-        <v>-0.03875823142050794</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>-0.01408450704225339</v>
-      </c>
-      <c r="R18" t="n">
-        <v>-0.9327753255841121</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.002796087302001188</v>
-      </c>
-      <c r="T18" t="n">
-        <v>-0.3636363636363636</v>
-      </c>
-      <c r="U18" t="n">
-        <v>-0.3636363636363636</v>
-      </c>
-      <c r="V18" t="n">
-        <v>-0.1127029608404966</v>
-      </c>
-      <c r="W18" t="n">
-        <v>-0.2826086956521739</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.01538461538461533</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.807392228305077</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.8846726315746626</v>
-      </c>
       <c r="AA18" t="n">
-        <v>0.001484602422189797</v>
+        <v>0.0031</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.07325046173959274</v>
+        <v>0.01</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.235294117647058</v>
+        <v>2.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.7850467289719626</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0.02273948696948934</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>-0.735632183908046</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>-1.644435059912899</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1.34607909648666</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>-0.0846320964572892</v>
-      </c>
+        <v>0.054</v>
+      </c>
+      <c r="AE18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45742</v>
+        <v>45770</v>
       </c>
       <c r="B19" t="n">
-        <v>1.443846305838945</v>
+        <v>-0.146889031430404</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9885204081632653</v>
+        <v>0.5269804822043629</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4408502772643252</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6655982905982905</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="F19" t="n">
-        <v>0.180990685859441</v>
+        <v>0.2292051756007394</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.02640264026402639</v>
+        <v>0.007598173684176387</v>
       </c>
       <c r="H19" t="n">
-        <v>2.27000000000001</v>
+        <v>-0.03014391287436802</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.02245614035087706</v>
+        <v>-0.01332760103181441</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04712575263159296</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1367075757030183</v>
+        <v>0.007619047619047636</v>
       </c>
       <c r="L19" t="n">
-        <v>17.89999999999998</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M19" t="n">
-        <v>85254.14603437469</v>
+        <v>-0.1425227210134949</v>
       </c>
       <c r="N19" t="n">
-        <v>175.0246830726845</v>
+        <v>0.09966984934211788</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.04017647611001596</v>
+        <v>0.7024999999999997</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-0.003693444136657398</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.01408450704225339</v>
+        <v>0.003720930232558262</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.9145207512447334</v>
+        <v>-0.01099908340971578</v>
       </c>
       <c r="S19" t="n">
-        <v>0.002796087302001188</v>
+        <v>0.01515700314842161</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-0.04196350151263784</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-2.25708941520879</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.1127029608404966</v>
+        <v>0.02068141063956963</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.2826086956521739</v>
+        <v>-0.50527289410387</v>
       </c>
       <c r="X19" t="n">
-        <v>0.01538461538461533</v>
+        <v>-26.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.727346065105843</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.016277894732551</v>
+        <v>9.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.001342076117320833</v>
+        <v>0.0031</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.07325046173959274</v>
+        <v>0.01</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.235294117647058</v>
+        <v>2.25</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.7850467289719626</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0.02273948696948934</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>-0.735632183908046</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>-1.577103326231316</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1.299802084396736</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>-0.05888099156192017</v>
-      </c>
+        <v>0.054</v>
+      </c>
+      <c r="AE19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45743</v>
+        <v>45771</v>
       </c>
       <c r="B20" t="n">
-        <v>1.30658910930864</v>
+        <v>-0.1561100447856686</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9910828025477705</v>
+        <v>0.5143513203214696</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4445471349353047</v>
+        <v>0.0909842845326716</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6315240083507307</v>
+        <v>0.3111332007952285</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1719839425311642</v>
+        <v>0.2190388170055451</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.02640264026402639</v>
+        <v>0.006894686842071156</v>
       </c>
       <c r="H20" t="n">
-        <v>3.650000000000006</v>
+        <v>-0.02979737783075076</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.03558620689655168</v>
+        <v>-0.02691983122362862</v>
       </c>
       <c r="J20" t="n">
-        <v>0.04557964736843539</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1405566698077458</v>
+        <v>0.007619047619047636</v>
       </c>
       <c r="L20" t="n">
-        <v>18.60000000000002</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M20" t="n">
-        <v>76202.53771673924</v>
+        <v>-0.1366698748796921</v>
       </c>
       <c r="N20" t="n">
-        <v>165.0103864416749</v>
+        <v>0.09351977565790727</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.03260561383612137</v>
+        <v>0.5739999999999998</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-0.003693444136657398</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.01408450704225339</v>
+        <v>0.003720930232558262</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.8966823629857449</v>
+        <v>-0.01099908340971578</v>
       </c>
       <c r="S20" t="n">
-        <v>0.002796087302001188</v>
+        <v>0.02061278216546225</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-0.05359729599227425</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-2.254600317201654</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.1127029608404966</v>
+        <v>0.02056432329029168</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.2826086956521739</v>
+        <v>-0.4752754923168661</v>
       </c>
       <c r="X20" t="n">
-        <v>0.01538461538461533</v>
+        <v>-26.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.654155943152746</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.195192368416756</v>
+        <v>9.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.001178076644034544</v>
+        <v>0.0031</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.07325046173959274</v>
+        <v>0.01</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.235294117647058</v>
+        <v>2.25</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.7850467289719626</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0.02273948696948934</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>-0.735632183908046</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>-1.514742368896864</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1.256026097715484</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>-0.03662895573927993</v>
-      </c>
+        <v>0.054</v>
+      </c>
+      <c r="AE20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45744</v>
+        <v>45772</v>
       </c>
       <c r="B21" t="n">
-        <v>1.105687346080114</v>
+        <v>-0.125</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9195979899497486</v>
+        <v>0.5210466439135382</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4121996303142328</v>
+        <v>0.07648953301127204</v>
       </c>
       <c r="E21" t="n">
-        <v>0.608421052631579</v>
+        <v>0.3383383383383383</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1268302742833574</v>
+        <v>0.2356746765249538</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.02640264026402639</v>
+        <v>0.007285454605229077</v>
       </c>
       <c r="H21" t="n">
-        <v>2.450000000000003</v>
+        <v>0.005693371289141824</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.05258844420161168</v>
+        <v>-0.03708322940051545</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04088382631580424</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1427577655833554</v>
+        <v>0.007619047619047636</v>
       </c>
       <c r="L21" t="n">
-        <v>11.39999999999998</v>
+        <v>-0.03113553113553114</v>
       </c>
       <c r="M21" t="n">
-        <v>45464.48446199376</v>
+        <v>-0.1311181580035847</v>
       </c>
       <c r="N21" t="n">
-        <v>158.0666215631709</v>
+        <v>0.08537269671053871</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.03767380683953392</v>
+        <v>0.3719999999999999</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>-0.003693444136657398</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.01408450704225339</v>
+        <v>0.003720930232558262</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.8792387597448703</v>
+        <v>-0.01099908340971578</v>
       </c>
       <c r="S21" t="n">
-        <v>0.002796087302001188</v>
+        <v>0.01521209166260373</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-0.05648515330302728</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.3636363636363636</v>
+        <v>-2.412943658291758</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.1127029608404966</v>
+        <v>0.02105515013757642</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.2826086956521739</v>
+        <v>-0.4319424786238373</v>
       </c>
       <c r="X21" t="n">
-        <v>0.01538461538461533</v>
+        <v>-26.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.586798441238221</v>
+        <v>-31.11702</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.101369473679919</v>
+        <v>9.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.001044820851493063</v>
+        <v>0.0031</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.07325046173959274</v>
+        <v>0.004</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.235294117647058</v>
+        <v>2.25</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.7850467289719626</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0.02273948696948934</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>-0.735632183908046</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>-1.456684531489297</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0.02439024390243905</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1.214495780145251</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>-2.601929632866913</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>-0.009985773005981025</v>
-      </c>
+        <v>0.054</v>
+      </c>
+      <c r="AE21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
